--- a/tests/expected_results/result_test_write_results_swaper_missing_month.xlsx
+++ b/tests/expected_results/result_test_write_results_swaper_missing_month.xlsx
@@ -8,9 +8,9 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Tagesergebnisse" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Monatsergebnisse" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Gesamtergebnis" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Daily results" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Monthly results" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Total results" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -171,8 +171,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -180,7 +184,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -221,2157 +225,2157 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="21.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="34.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="18.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1020" min="10" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1021" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="16.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="21.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="16.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="34.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="18.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1020" min="10" style="1" width="8.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1021" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="5" t="n">
+      <c r="C2" s="6" t="n">
         <v>43344</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="3" t="n">
         <v>-250</v>
       </c>
-      <c r="E2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2" t="n">
+      <c r="E2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="n">
         <v>198.14</v>
       </c>
-      <c r="G2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2" t="n">
+      <c r="G2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3" t="n">
         <v>4.51</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="I2" s="3" t="n">
         <v>4.51</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="5" t="n">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="6" t="n">
         <v>43346</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="3" t="n">
         <v>-25.45</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="3" t="n">
         <v>2.78</v>
       </c>
-      <c r="F3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2" t="n">
+      <c r="F3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3" t="n">
         <v>0.33</v>
       </c>
-      <c r="H3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2" t="n">
+      <c r="H3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3" t="n">
         <v>0.33</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="5" t="n">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="6" t="n">
         <v>43347</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="3" t="n">
         <v>-73.93</v>
       </c>
-      <c r="E4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2" t="n">
+      <c r="E4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3" t="n">
         <v>73.54</v>
       </c>
-      <c r="G4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2" t="n">
+      <c r="G4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3" t="n">
         <v>0.39</v>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="I4" s="3" t="n">
         <v>0.39</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="5" t="n">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="6" t="n">
         <v>43349</v>
       </c>
-      <c r="D5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2" t="n">
+      <c r="D5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3" t="n">
         <v>0.87</v>
       </c>
-      <c r="G5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2" t="n">
+      <c r="G5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3" t="n">
         <v>0.12</v>
       </c>
-      <c r="I5" s="2" t="n">
+      <c r="I5" s="3" t="n">
         <v>0.12</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="5" t="n">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="6" t="n">
         <v>43351</v>
       </c>
-      <c r="D6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="n">
+      <c r="D6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3" t="n">
         <v>2.68</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="F6" s="3" t="n">
         <v>113.36</v>
       </c>
-      <c r="G6" s="2" t="n">
+      <c r="G6" s="3" t="n">
         <v>0.9</v>
       </c>
-      <c r="H6" s="2" t="n">
+      <c r="H6" s="3" t="n">
         <v>3.12</v>
       </c>
-      <c r="I6" s="2" t="n">
+      <c r="I6" s="3" t="n">
         <v>4.02</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="5" t="n">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="6" t="n">
         <v>43352</v>
       </c>
-      <c r="D7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2" t="n">
+      <c r="D7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="n">
         <v>52.07</v>
       </c>
-      <c r="G7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2" t="n">
+      <c r="G7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3" t="n">
         <v>1.89</v>
       </c>
-      <c r="I7" s="2" t="n">
+      <c r="I7" s="3" t="n">
         <v>1.89</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="5" t="n">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="6" t="n">
         <v>43353</v>
       </c>
-      <c r="D8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2" t="n">
+      <c r="D8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="n">
         <v>132.24</v>
       </c>
-      <c r="F8" s="2" t="n">
+      <c r="F8" s="3" t="n">
         <v>69.41</v>
       </c>
-      <c r="G8" s="2" t="n">
+      <c r="G8" s="3" t="n">
         <v>1.75</v>
       </c>
-      <c r="H8" s="2" t="n">
+      <c r="H8" s="3" t="n">
         <v>1.6</v>
       </c>
-      <c r="I8" s="2" t="n">
+      <c r="I8" s="3" t="n">
         <v>3.35</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="5" t="n">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="6" t="n">
         <v>43354</v>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" s="3" t="n">
         <v>-250</v>
       </c>
-      <c r="E9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2" t="n">
+      <c r="E9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="n">
         <v>214.38</v>
       </c>
-      <c r="G9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2" t="n">
+      <c r="G9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3" t="n">
         <v>5.05</v>
       </c>
-      <c r="I9" s="2" t="n">
+      <c r="I9" s="3" t="n">
         <v>5.05</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="5" t="n">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="6" t="n">
         <v>43355</v>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" s="3" t="n">
         <v>-250</v>
       </c>
-      <c r="E10" s="2" t="n">
+      <c r="E10" s="3" t="n">
         <v>114.37</v>
       </c>
-      <c r="F10" s="2" t="n">
+      <c r="F10" s="3" t="n">
         <v>9.71</v>
       </c>
-      <c r="G10" s="2" t="n">
+      <c r="G10" s="3" t="n">
         <v>6.09</v>
       </c>
-      <c r="H10" s="2" t="n">
+      <c r="H10" s="3" t="n">
         <v>4.39</v>
       </c>
-      <c r="I10" s="2" t="n">
+      <c r="I10" s="3" t="n">
         <v>10.48</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="5" t="n">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="6" t="n">
         <v>43356</v>
       </c>
-      <c r="D11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2" t="n">
+      <c r="D11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3" t="n">
         <v>114.8</v>
       </c>
-      <c r="F11" s="2" t="n">
+      <c r="F11" s="3" t="n">
         <v>52.12</v>
       </c>
-      <c r="G11" s="2" t="n">
+      <c r="G11" s="3" t="n">
         <v>5.84</v>
       </c>
-      <c r="H11" s="2" t="n">
+      <c r="H11" s="3" t="n">
         <v>0.78</v>
       </c>
-      <c r="I11" s="2" t="n">
+      <c r="I11" s="3" t="n">
         <v>6.62</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="5" t="n">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="6" t="n">
         <v>43357</v>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" s="3" t="n">
         <v>-250</v>
       </c>
-      <c r="E12" s="2" t="n">
+      <c r="E12" s="3" t="n">
         <v>142.79</v>
       </c>
-      <c r="F12" s="2" t="n">
+      <c r="F12" s="3" t="n">
         <v>107.52</v>
       </c>
-      <c r="G12" s="2" t="n">
+      <c r="G12" s="3" t="n">
         <v>1.04</v>
       </c>
-      <c r="H12" s="2" t="n">
+      <c r="H12" s="3" t="n">
         <v>2.9</v>
       </c>
-      <c r="I12" s="2" t="n">
+      <c r="I12" s="3" t="n">
         <v>3.94</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="5" t="n">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="6" t="n">
         <v>43358</v>
       </c>
-      <c r="D13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2" t="n">
+      <c r="D13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3" t="n">
         <v>39.97</v>
       </c>
-      <c r="F13" s="2" t="n">
+      <c r="F13" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="G13" s="2" t="n">
+      <c r="G13" s="3" t="n">
         <v>1.41</v>
       </c>
-      <c r="H13" s="2" t="n">
+      <c r="H13" s="3" t="n">
         <v>2.26</v>
       </c>
-      <c r="I13" s="2" t="n">
+      <c r="I13" s="3" t="n">
         <v>3.67</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="5" t="n">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="6" t="n">
         <v>43359</v>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="D14" s="3" t="n">
         <v>-250</v>
       </c>
-      <c r="E14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2" t="n">
+      <c r="E14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="n">
         <v>131.76</v>
       </c>
-      <c r="G14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2" t="n">
+      <c r="G14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="n">
         <v>1.92</v>
       </c>
-      <c r="I14" s="2" t="n">
+      <c r="I14" s="3" t="n">
         <v>1.92</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="5" t="n">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="6" t="n">
         <v>43360</v>
       </c>
-      <c r="D15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2" t="n">
+      <c r="D15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3" t="n">
         <v>193.11</v>
       </c>
-      <c r="F15" s="2" t="n">
+      <c r="F15" s="3" t="n">
         <v>64.02</v>
       </c>
-      <c r="G15" s="2" t="n">
+      <c r="G15" s="3" t="n">
         <v>3.67</v>
       </c>
-      <c r="H15" s="2" t="n">
+      <c r="H15" s="3" t="n">
         <v>0.61</v>
       </c>
-      <c r="I15" s="2" t="n">
+      <c r="I15" s="3" t="n">
         <v>4.28</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="5" t="n">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="6" t="n">
         <v>43361</v>
       </c>
-      <c r="D16" s="2" t="n">
+      <c r="D16" s="3" t="n">
         <v>-500</v>
       </c>
-      <c r="E16" s="2" t="n">
+      <c r="E16" s="3" t="n">
         <v>104.6</v>
       </c>
-      <c r="F16" s="2" t="n">
+      <c r="F16" s="3" t="n">
         <v>107.1</v>
       </c>
-      <c r="G16" s="2" t="n">
+      <c r="G16" s="3" t="n">
         <v>1.15</v>
       </c>
-      <c r="H16" s="2" t="n">
+      <c r="H16" s="3" t="n">
         <v>2.01</v>
       </c>
-      <c r="I16" s="2" t="n">
+      <c r="I16" s="3" t="n">
         <v>3.16</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="5" t="n">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="6" t="n">
         <v>43362</v>
       </c>
-      <c r="D17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="2" t="n">
+      <c r="D17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="F17" s="2" t="n">
+      <c r="F17" s="3" t="n">
         <v>28.31</v>
       </c>
-      <c r="G17" s="2" t="n">
+      <c r="G17" s="3" t="n">
         <v>0.96</v>
       </c>
-      <c r="H17" s="2" t="n">
+      <c r="H17" s="3" t="n">
         <v>2.16</v>
       </c>
-      <c r="I17" s="2" t="n">
+      <c r="I17" s="3" t="n">
         <v>3.12</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="5" t="n">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="6" t="n">
         <v>43363</v>
       </c>
-      <c r="D18" s="2" t="n">
+      <c r="D18" s="3" t="n">
         <v>-500</v>
       </c>
-      <c r="E18" s="2" t="n">
+      <c r="E18" s="3" t="n">
         <v>194.26</v>
       </c>
-      <c r="F18" s="2" t="n">
+      <c r="F18" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="G18" s="2" t="n">
+      <c r="G18" s="3" t="n">
         <v>2.49</v>
       </c>
-      <c r="H18" s="2" t="n">
+      <c r="H18" s="3" t="n">
         <v>2.3</v>
       </c>
-      <c r="I18" s="2" t="n">
+      <c r="I18" s="3" t="n">
         <v>4.79</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="5" t="n">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="6" t="n">
         <v>43364</v>
       </c>
-      <c r="D19" s="2" t="n">
+      <c r="D19" s="3" t="n">
         <v>-250</v>
       </c>
-      <c r="E19" s="2" t="n">
+      <c r="E19" s="3" t="n">
         <v>393.01</v>
       </c>
-      <c r="F19" s="2" t="n">
+      <c r="F19" s="3" t="n">
         <v>300</v>
       </c>
-      <c r="G19" s="2" t="n">
+      <c r="G19" s="3" t="n">
         <v>5.95</v>
       </c>
-      <c r="H19" s="2" t="n">
+      <c r="H19" s="3" t="n">
         <v>6.63</v>
       </c>
-      <c r="I19" s="2" t="n">
+      <c r="I19" s="3" t="n">
         <v>12.58</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="5" t="n">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="6" t="n">
         <v>43365</v>
       </c>
-      <c r="D20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" s="2" t="n">
+      <c r="D20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3" t="n">
         <v>183.01</v>
       </c>
-      <c r="F20" s="2" t="n">
+      <c r="F20" s="3" t="n">
         <v>106.52</v>
       </c>
-      <c r="G20" s="2" t="n">
+      <c r="G20" s="3" t="n">
         <v>3.92</v>
       </c>
-      <c r="H20" s="2" t="n">
+      <c r="H20" s="3" t="n">
         <v>1.8</v>
       </c>
-      <c r="I20" s="2" t="n">
+      <c r="I20" s="3" t="n">
         <v>5.72</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="5" t="n">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="6" t="n">
         <v>43366</v>
       </c>
-      <c r="D21" s="2" t="n">
+      <c r="D21" s="3" t="n">
         <v>-500</v>
       </c>
-      <c r="E21" s="2" t="n">
+      <c r="E21" s="3" t="n">
         <v>1.39</v>
       </c>
-      <c r="F21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="2" t="n">
+      <c r="F21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3" t="n">
         <v>0.25</v>
       </c>
-      <c r="H21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" s="2" t="n">
+      <c r="H21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3" t="n">
         <v>0.25</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="5" t="n">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="6" t="n">
         <v>43367</v>
       </c>
-      <c r="D22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" s="2" t="n">
+      <c r="D22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3" t="n">
         <v>70.88</v>
       </c>
-      <c r="F22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="2" t="n">
+      <c r="F22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="n">
         <v>3.24</v>
       </c>
-      <c r="H22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" s="2" t="n">
+      <c r="H22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3" t="n">
         <v>3.24</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="5" t="n">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="6" t="n">
         <v>43368</v>
       </c>
-      <c r="D23" s="2" t="n">
+      <c r="D23" s="3" t="n">
         <v>-72.82</v>
       </c>
-      <c r="E23" s="2" t="n">
+      <c r="E23" s="3" t="n">
         <v>6.45</v>
       </c>
-      <c r="F23" s="2" t="n">
+      <c r="F23" s="3" t="n">
         <v>158.47</v>
       </c>
-      <c r="G23" s="2" t="n">
+      <c r="G23" s="3" t="n">
         <v>0.66</v>
       </c>
-      <c r="H23" s="2" t="n">
+      <c r="H23" s="3" t="n">
         <v>2.23</v>
       </c>
-      <c r="I23" s="2" t="n">
+      <c r="I23" s="3" t="n">
         <v>2.89</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="5" t="n">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="6" t="n">
         <v>43369</v>
       </c>
-      <c r="D24" s="2" t="n">
+      <c r="D24" s="3" t="n">
         <v>-100</v>
       </c>
-      <c r="E24" s="2" t="n">
+      <c r="E24" s="3" t="n">
         <v>37.53</v>
       </c>
-      <c r="F24" s="2" t="n">
+      <c r="F24" s="3" t="n">
         <v>9.4</v>
       </c>
-      <c r="G24" s="2" t="n">
+      <c r="G24" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="H24" s="2" t="n">
+      <c r="H24" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="I24" s="2" t="n">
+      <c r="I24" s="3" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="5" t="n">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="6" t="n">
         <v>43370</v>
       </c>
-      <c r="D25" s="2" t="n">
+      <c r="D25" s="3" t="n">
         <v>-500</v>
       </c>
-      <c r="E25" s="2" t="n">
+      <c r="E25" s="3" t="n">
         <v>10.75</v>
       </c>
-      <c r="F25" s="2" t="n">
+      <c r="F25" s="3" t="n">
         <v>16.24</v>
       </c>
-      <c r="G25" s="2" t="n">
+      <c r="G25" s="3" t="n">
         <v>1.28</v>
       </c>
-      <c r="H25" s="2" t="n">
+      <c r="H25" s="3" t="n">
         <v>0.42</v>
       </c>
-      <c r="I25" s="2" t="n">
+      <c r="I25" s="3" t="n">
         <v>1.7</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="5" t="n">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="6" t="n">
         <v>43371</v>
       </c>
-      <c r="D26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" s="2" t="n">
+      <c r="D26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3" t="n">
         <v>3.65</v>
       </c>
-      <c r="F26" s="2" t="n">
+      <c r="F26" s="3" t="n">
         <v>5.94</v>
       </c>
-      <c r="G26" s="2" t="n">
+      <c r="G26" s="3" t="n">
         <v>0.08</v>
       </c>
-      <c r="H26" s="2" t="n">
+      <c r="H26" s="3" t="n">
         <v>0.58</v>
       </c>
-      <c r="I26" s="2" t="n">
+      <c r="I26" s="3" t="n">
         <v>0.66</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="5" t="n">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="6" t="n">
         <v>43372</v>
       </c>
-      <c r="D27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" s="2" t="n">
+      <c r="D27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3" t="n">
         <v>98.93</v>
       </c>
-      <c r="F27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" s="2" t="n">
+      <c r="F27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3" t="n">
         <v>1.15</v>
       </c>
-      <c r="H27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" s="2" t="n">
+      <c r="H27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3" t="n">
         <v>1.15</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="5" t="n">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="6" t="n">
         <v>43373</v>
       </c>
-      <c r="D28" s="2" t="n">
+      <c r="D28" s="3" t="n">
         <v>-470.59</v>
       </c>
-      <c r="E28" s="2" t="n">
+      <c r="E28" s="3" t="n">
         <v>77.33</v>
       </c>
-      <c r="F28" s="2" t="n">
+      <c r="F28" s="3" t="n">
         <v>12.9</v>
       </c>
-      <c r="G28" s="2" t="n">
+      <c r="G28" s="3" t="n">
         <v>1.15</v>
       </c>
-      <c r="H28" s="2" t="n">
+      <c r="H28" s="3" t="n">
         <v>0.29</v>
       </c>
-      <c r="I28" s="2" t="n">
+      <c r="I28" s="3" t="n">
         <v>1.44</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="5" t="n">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="6" t="n">
         <v>43405</v>
       </c>
-      <c r="D29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" s="2" t="n">
+      <c r="D29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="F29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" s="2" t="n">
+      <c r="F29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3" t="n">
         <v>1.34</v>
       </c>
-      <c r="H29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" s="2" t="n">
+      <c r="H29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3" t="n">
         <v>1.34</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="5" t="n">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="6" t="n">
         <v>43406</v>
       </c>
-      <c r="D30" s="2" t="n">
+      <c r="D30" s="3" t="n">
         <v>-250</v>
       </c>
-      <c r="E30" s="2" t="n">
+      <c r="E30" s="3" t="n">
         <v>5.75</v>
       </c>
-      <c r="F30" s="2" t="n">
+      <c r="F30" s="3" t="n">
         <v>221.81</v>
       </c>
-      <c r="G30" s="2" t="n">
+      <c r="G30" s="3" t="n">
         <v>1.25</v>
       </c>
-      <c r="H30" s="2" t="n">
+      <c r="H30" s="3" t="n">
         <v>2.94</v>
       </c>
-      <c r="I30" s="2" t="n">
+      <c r="I30" s="3" t="n">
         <v>4.19</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="5" t="n">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="6" t="n">
         <v>43407</v>
       </c>
-      <c r="D31" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" s="2" t="n">
+      <c r="D31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="3" t="n">
         <v>103.11</v>
       </c>
-      <c r="F31" s="2" t="n">
+      <c r="F31" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="G31" s="2" t="n">
+      <c r="G31" s="3" t="n">
         <v>1.39</v>
       </c>
-      <c r="H31" s="2" t="n">
+      <c r="H31" s="3" t="n">
         <v>1.65</v>
       </c>
-      <c r="I31" s="2" t="n">
+      <c r="I31" s="3" t="n">
         <v>3.04</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="5" t="n">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="6" t="n">
         <v>43408</v>
       </c>
-      <c r="D32" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" s="2" t="n">
+      <c r="D32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3" t="n">
         <v>15.34</v>
       </c>
-      <c r="F32" s="2" t="n">
+      <c r="F32" s="3" t="n">
         <v>0.04</v>
       </c>
-      <c r="G32" s="2" t="n">
+      <c r="G32" s="3" t="n">
         <v>0.55</v>
       </c>
-      <c r="H32" s="2" t="n">
+      <c r="H32" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="I32" s="2" t="n">
+      <c r="I32" s="3" t="n">
         <v>1.55</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="5" t="n">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="6" t="n">
         <v>43409</v>
       </c>
-      <c r="D33" s="2" t="n">
+      <c r="D33" s="3" t="n">
         <v>-500</v>
       </c>
-      <c r="E33" s="2" t="n">
+      <c r="E33" s="3" t="n">
         <v>68.18</v>
       </c>
-      <c r="F33" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" s="2" t="n">
+      <c r="F33" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3" t="n">
         <v>0.71</v>
       </c>
-      <c r="H33" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" s="2" t="n">
+      <c r="H33" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3" t="n">
         <v>0.71</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="5" t="n">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="6" t="n">
         <v>43410</v>
       </c>
-      <c r="D34" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" s="2" t="n">
+      <c r="D34" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3" t="n">
         <v>100.97</v>
       </c>
-      <c r="G34" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" s="2" t="n">
+      <c r="G34" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" s="3" t="n">
         <v>1.32</v>
       </c>
-      <c r="I34" s="2" t="n">
+      <c r="I34" s="3" t="n">
         <v>1.32</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="5" t="n">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="6" t="n">
         <v>43411</v>
       </c>
-      <c r="D35" s="2" t="n">
+      <c r="D35" s="3" t="n">
         <v>-250</v>
       </c>
-      <c r="E35" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="5" t="n">
+      <c r="E35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="6" t="n">
         <v>43412</v>
       </c>
-      <c r="D36" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" s="2" t="n">
+      <c r="D36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" s="3" t="n">
         <v>107.37</v>
       </c>
-      <c r="F36" s="2" t="n">
+      <c r="F36" s="3" t="n">
         <v>8.41</v>
       </c>
-      <c r="G36" s="2" t="n">
+      <c r="G36" s="3" t="n">
         <v>2.56</v>
       </c>
-      <c r="H36" s="2" t="n">
+      <c r="H36" s="3" t="n">
         <v>0.58</v>
       </c>
-      <c r="I36" s="2" t="n">
+      <c r="I36" s="3" t="n">
         <v>3.14</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="5" t="n">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="6" t="n">
         <v>43413</v>
       </c>
-      <c r="D37" s="2" t="n">
+      <c r="D37" s="3" t="n">
         <v>-250</v>
       </c>
-      <c r="E37" s="2" t="n">
+      <c r="E37" s="3" t="n">
         <v>111.88</v>
       </c>
-      <c r="F37" s="2" t="n">
+      <c r="F37" s="3" t="n">
         <v>64.8</v>
       </c>
-      <c r="G37" s="2" t="n">
+      <c r="G37" s="3" t="n">
         <v>1.79</v>
       </c>
-      <c r="H37" s="2" t="n">
+      <c r="H37" s="3" t="n">
         <v>1.09</v>
       </c>
-      <c r="I37" s="2" t="n">
+      <c r="I37" s="3" t="n">
         <v>2.88</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="5" t="n">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="6" t="n">
         <v>43415</v>
       </c>
-      <c r="D38" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" s="2" t="n">
+      <c r="D38" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" s="3" t="n">
         <v>77.57</v>
       </c>
-      <c r="F38" s="2" t="n">
+      <c r="F38" s="3" t="n">
         <v>0.76</v>
       </c>
-      <c r="G38" s="2" t="n">
+      <c r="G38" s="3" t="n">
         <v>4.43</v>
       </c>
-      <c r="H38" s="2" t="n">
+      <c r="H38" s="3" t="n">
         <v>0.21</v>
       </c>
-      <c r="I38" s="2" t="n">
+      <c r="I38" s="3" t="n">
         <v>4.64</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="5" t="n">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="6" t="n">
         <v>43416</v>
       </c>
-      <c r="D39" s="2" t="n">
+      <c r="D39" s="3" t="n">
         <v>-250</v>
       </c>
-      <c r="E39" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" s="2" t="n">
+      <c r="E39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" s="3" t="n">
         <v>58.03</v>
       </c>
-      <c r="G39" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" s="2" t="n">
+      <c r="G39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" s="3" t="n">
         <v>3.61</v>
       </c>
-      <c r="I39" s="2" t="n">
+      <c r="I39" s="3" t="n">
         <v>3.61</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="5" t="n">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="6" t="n">
         <v>43417</v>
       </c>
-      <c r="D40" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" s="2" t="n">
+      <c r="D40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" s="3" t="n">
         <v>177.83</v>
       </c>
-      <c r="F40" s="2" t="n">
+      <c r="F40" s="3" t="n">
         <v>102.37</v>
       </c>
-      <c r="G40" s="2" t="n">
+      <c r="G40" s="3" t="n">
         <v>2.39</v>
       </c>
-      <c r="H40" s="2" t="n">
+      <c r="H40" s="3" t="n">
         <v>2.3</v>
       </c>
-      <c r="I40" s="2" t="n">
+      <c r="I40" s="3" t="n">
         <v>4.69</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="5" t="n">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="6" t="n">
         <v>43418</v>
       </c>
-      <c r="D41" s="2" t="n">
+      <c r="D41" s="3" t="n">
         <v>-95.19</v>
       </c>
-      <c r="E41" s="2" t="n">
+      <c r="E41" s="3" t="n">
         <v>43.18</v>
       </c>
-      <c r="F41" s="2" t="n">
+      <c r="F41" s="3" t="n">
         <v>8.42</v>
       </c>
-      <c r="G41" s="2" t="n">
+      <c r="G41" s="3" t="n">
         <v>0.33</v>
       </c>
-      <c r="H41" s="2" t="n">
+      <c r="H41" s="3" t="n">
         <v>0.58</v>
       </c>
-      <c r="I41" s="2" t="n">
+      <c r="I41" s="3" t="n">
         <v>0.91</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="5" t="n">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="6" t="n">
         <v>43419</v>
       </c>
-      <c r="D42" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" s="2" t="n">
+      <c r="D42" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3" t="n">
         <v>123.94</v>
       </c>
-      <c r="F42" s="2" t="n">
+      <c r="F42" s="3" t="n">
         <v>52.71</v>
       </c>
-      <c r="G42" s="2" t="n">
+      <c r="G42" s="3" t="n">
         <v>4.1</v>
       </c>
-      <c r="H42" s="2" t="n">
+      <c r="H42" s="3" t="n">
         <v>3.59</v>
       </c>
-      <c r="I42" s="2" t="n">
+      <c r="I42" s="3" t="n">
         <v>7.69</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="5" t="n">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="6" t="n">
         <v>43420</v>
       </c>
-      <c r="D43" s="2" t="n">
+      <c r="D43" s="3" t="n">
         <v>-250</v>
       </c>
-      <c r="E43" s="2" t="n">
+      <c r="E43" s="3" t="n">
         <v>294.86</v>
       </c>
-      <c r="F43" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" s="2" t="n">
+      <c r="F43" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3" t="n">
         <v>4.26</v>
       </c>
-      <c r="H43" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" s="2" t="n">
+      <c r="H43" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3" t="n">
         <v>4.26</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="5" t="n">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="6" t="n">
         <v>43422</v>
       </c>
-      <c r="D44" s="2" t="n">
+      <c r="D44" s="3" t="n">
         <v>-250</v>
       </c>
-      <c r="E44" s="2" t="n">
+      <c r="E44" s="3" t="n">
         <v>38.52</v>
       </c>
-      <c r="F44" s="2" t="n">
+      <c r="F44" s="3" t="n">
         <v>35.57</v>
       </c>
-      <c r="G44" s="2" t="n">
+      <c r="G44" s="3" t="n">
         <v>0.29</v>
       </c>
-      <c r="H44" s="2" t="n">
+      <c r="H44" s="3" t="n">
         <v>0.97</v>
       </c>
-      <c r="I44" s="2" t="n">
+      <c r="I44" s="3" t="n">
         <v>1.26</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="5" t="n">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="6" t="n">
         <v>43423</v>
       </c>
-      <c r="D45" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" s="2" t="n">
+      <c r="D45" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3" t="n">
         <v>276.92</v>
       </c>
-      <c r="F45" s="2" t="n">
+      <c r="F45" s="3" t="n">
         <v>11.65</v>
       </c>
-      <c r="G45" s="2" t="n">
+      <c r="G45" s="3" t="n">
         <v>6.18</v>
       </c>
-      <c r="H45" s="2" t="n">
+      <c r="H45" s="3" t="n">
         <v>0.14</v>
       </c>
-      <c r="I45" s="2" t="n">
+      <c r="I45" s="3" t="n">
         <v>6.32</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="5" t="n">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="6" t="n">
         <v>43424</v>
       </c>
-      <c r="D46" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" s="2" t="n">
+      <c r="D46" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3" t="n">
         <v>113.3</v>
       </c>
-      <c r="F46" s="2" t="n">
+      <c r="F46" s="3" t="n">
         <v>100.21</v>
       </c>
-      <c r="G46" s="2" t="n">
+      <c r="G46" s="3" t="n">
         <v>4.4</v>
       </c>
-      <c r="H46" s="2" t="n">
+      <c r="H46" s="3" t="n">
         <v>3.41</v>
       </c>
-      <c r="I46" s="2" t="n">
+      <c r="I46" s="3" t="n">
         <v>7.81</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="5" t="n">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="6" t="n">
         <v>43425</v>
       </c>
-      <c r="D47" s="2" t="n">
+      <c r="D47" s="3" t="n">
         <v>-500</v>
       </c>
-      <c r="E47" s="2" t="n">
+      <c r="E47" s="3" t="n">
         <v>159.12</v>
       </c>
-      <c r="F47" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" s="2" t="n">
+      <c r="F47" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3" t="n">
         <v>2.11</v>
       </c>
-      <c r="H47" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" s="2" t="n">
+      <c r="H47" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3" t="n">
         <v>2.11</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="5" t="n">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="6" t="n">
         <v>43426</v>
       </c>
-      <c r="D48" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" s="2" t="n">
+      <c r="D48" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="F48" s="2" t="n">
+      <c r="F48" s="3" t="n">
         <v>107.3</v>
       </c>
-      <c r="G48" s="2" t="n">
+      <c r="G48" s="3" t="n">
         <v>1.27</v>
       </c>
-      <c r="H48" s="2" t="n">
+      <c r="H48" s="3" t="n">
         <v>1.65</v>
       </c>
-      <c r="I48" s="2" t="n">
+      <c r="I48" s="3" t="n">
         <v>2.92</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="5" t="n">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="6" t="n">
         <v>43427</v>
       </c>
-      <c r="D49" s="2" t="n">
+      <c r="D49" s="3" t="n">
         <v>-500</v>
       </c>
-      <c r="E49" s="2" t="n">
+      <c r="E49" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="F49" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" s="2" t="n">
+      <c r="F49" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3" t="n">
         <v>0.13</v>
       </c>
-      <c r="H49" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" s="2" t="n">
+      <c r="H49" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3" t="n">
         <v>0.13</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="5" t="n">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="6" t="n">
         <v>43428</v>
       </c>
-      <c r="D50" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" s="2" t="n">
+      <c r="D50" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" s="3" t="n">
         <v>3.18</v>
       </c>
-      <c r="F50" s="2" t="n">
+      <c r="F50" s="3" t="n">
         <v>1.89</v>
       </c>
-      <c r="G50" s="2" t="n">
+      <c r="G50" s="3" t="n">
         <v>1.24</v>
       </c>
-      <c r="H50" s="2" t="n">
+      <c r="H50" s="3" t="n">
         <v>0.23</v>
       </c>
-      <c r="I50" s="2" t="n">
+      <c r="I50" s="3" t="n">
         <v>1.47</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="5" t="n">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="6" t="n">
         <v>43429</v>
       </c>
-      <c r="D51" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" s="2" t="n">
+      <c r="D51" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" s="3" t="n">
         <v>209.48</v>
       </c>
-      <c r="G51" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H51" s="2" t="n">
+      <c r="G51" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" s="3" t="n">
         <v>4.33</v>
       </c>
-      <c r="I51" s="2" t="n">
+      <c r="I51" s="3" t="n">
         <v>4.33</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="5" t="n">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="6" t="n">
         <v>43430</v>
       </c>
-      <c r="D52" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" s="2" t="n">
+      <c r="D52" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3" t="n">
         <v>207.22</v>
       </c>
-      <c r="F52" s="2" t="n">
+      <c r="F52" s="3" t="n">
         <v>228.92</v>
       </c>
-      <c r="G52" s="2" t="n">
+      <c r="G52" s="3" t="n">
         <v>2.92</v>
       </c>
-      <c r="H52" s="2" t="n">
+      <c r="H52" s="3" t="n">
         <v>5.53</v>
       </c>
-      <c r="I52" s="2" t="n">
+      <c r="I52" s="3" t="n">
         <v>8.45</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="5" t="n">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="6" t="n">
         <v>43431</v>
       </c>
-      <c r="D53" s="2" t="n">
+      <c r="D53" s="3" t="n">
         <v>-250</v>
       </c>
-      <c r="E53" s="2" t="n">
+      <c r="E53" s="3" t="n">
         <v>125.38</v>
       </c>
-      <c r="F53" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" s="2" t="n">
+      <c r="F53" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" s="3" t="n">
         <v>2.31</v>
       </c>
-      <c r="H53" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" s="2" t="n">
+      <c r="H53" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" s="3" t="n">
         <v>2.31</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="5" t="n">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="6" t="n">
         <v>43432</v>
       </c>
-      <c r="D54" s="2" t="n">
+      <c r="D54" s="3" t="n">
         <v>-500</v>
       </c>
-      <c r="E54" s="2" t="n">
+      <c r="E54" s="3" t="n">
         <v>3.42</v>
       </c>
-      <c r="F54" s="2" t="n">
+      <c r="F54" s="3" t="n">
         <v>21.51</v>
       </c>
-      <c r="G54" s="2" t="n">
+      <c r="G54" s="3" t="n">
         <v>0.11</v>
       </c>
-      <c r="H54" s="2" t="n">
+      <c r="H54" s="3" t="n">
         <v>0.8</v>
       </c>
-      <c r="I54" s="2" t="n">
+      <c r="I54" s="3" t="n">
         <v>0.91</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="5" t="n">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="6" t="n">
         <v>43433</v>
       </c>
-      <c r="D55" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" s="2" t="n">
+      <c r="D55" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" s="3" t="n">
         <v>109.71</v>
       </c>
-      <c r="F55" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" s="2" t="n">
+      <c r="F55" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" s="3" t="n">
         <v>1.21</v>
       </c>
-      <c r="H55" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" s="2" t="n">
+      <c r="H55" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" s="3" t="n">
         <v>1.21</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="5" t="n">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="6" t="n">
         <v>43434</v>
       </c>
-      <c r="D56" s="2" t="n">
+      <c r="D56" s="3" t="n">
         <v>-250</v>
       </c>
-      <c r="E56" s="2" t="n">
+      <c r="E56" s="3" t="n">
         <v>110.54</v>
       </c>
-      <c r="F56" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" s="2" t="n">
+      <c r="F56" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" s="3" t="n">
         <v>1.62</v>
       </c>
-      <c r="H56" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" s="2" t="n">
+      <c r="H56" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" s="3" t="n">
         <v>1.62</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="5" t="n">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="6" t="n">
         <v>43435</v>
       </c>
-      <c r="D57" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E57" s="2" t="n">
+      <c r="D57" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3" t="n">
         <v>104.75</v>
       </c>
-      <c r="F57" s="2" t="n">
+      <c r="F57" s="3" t="n">
         <v>0.81</v>
       </c>
-      <c r="G57" s="2" t="n">
+      <c r="G57" s="3" t="n">
         <v>1.7</v>
       </c>
-      <c r="H57" s="2" t="n">
+      <c r="H57" s="3" t="n">
         <v>0.27</v>
       </c>
-      <c r="I57" s="2" t="n">
+      <c r="I57" s="3" t="n">
         <v>1.97</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="5" t="n">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="6" t="n">
         <v>43437</v>
       </c>
-      <c r="D58" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E58" s="2" t="n">
+      <c r="D58" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3" t="n">
         <v>96.68</v>
       </c>
-      <c r="F58" s="2" t="n">
+      <c r="F58" s="3" t="n">
         <v>122.03</v>
       </c>
-      <c r="G58" s="2" t="n">
+      <c r="G58" s="3" t="n">
         <v>2.67</v>
       </c>
-      <c r="H58" s="2" t="n">
+      <c r="H58" s="3" t="n">
         <v>0.61</v>
       </c>
-      <c r="I58" s="2" t="n">
+      <c r="I58" s="3" t="n">
         <v>3.28</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="5" t="n">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="6" t="n">
         <v>43438</v>
       </c>
-      <c r="D59" s="2" t="n">
+      <c r="D59" s="3" t="n">
         <v>-250</v>
       </c>
-      <c r="E59" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F59" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H59" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="5" t="n">
+      <c r="E59" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="6" t="n">
         <v>43439</v>
       </c>
-      <c r="D60" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E60" s="2" t="n">
+      <c r="D60" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" s="3" t="n">
         <v>111.68</v>
       </c>
-      <c r="F60" s="2" t="n">
+      <c r="F60" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="G60" s="2" t="n">
+      <c r="G60" s="3" t="n">
         <v>1.51</v>
       </c>
-      <c r="H60" s="2" t="n">
+      <c r="H60" s="3" t="n">
         <v>1.48</v>
       </c>
-      <c r="I60" s="2" t="n">
+      <c r="I60" s="3" t="n">
         <v>2.99</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="5" t="n">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="6" t="n">
         <v>43440</v>
       </c>
-      <c r="D61" s="2" t="n">
+      <c r="D61" s="3" t="n">
         <v>-250</v>
       </c>
-      <c r="E61" s="2" t="n">
+      <c r="E61" s="3" t="n">
         <v>175.34</v>
       </c>
-      <c r="F61" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G61" s="2" t="n">
+      <c r="F61" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3" t="n">
         <v>2.23</v>
       </c>
-      <c r="H61" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" s="2" t="n">
+      <c r="H61" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3" t="n">
         <v>2.23</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="5" t="n">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="6" t="n">
         <v>43441</v>
       </c>
-      <c r="D62" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E62" s="2" t="n">
+      <c r="D62" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3" t="n">
         <v>121.48</v>
       </c>
-      <c r="F62" s="2" t="n">
+      <c r="F62" s="3" t="n">
         <v>35.81</v>
       </c>
-      <c r="G62" s="2" t="n">
+      <c r="G62" s="3" t="n">
         <v>1.37</v>
       </c>
-      <c r="H62" s="2" t="n">
+      <c r="H62" s="3" t="n">
         <v>0.48</v>
       </c>
-      <c r="I62" s="2" t="n">
+      <c r="I62" s="3" t="n">
         <v>1.85</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="5" t="n">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="6" t="n">
         <v>43442</v>
       </c>
-      <c r="D63" s="2" t="n">
+      <c r="D63" s="3" t="n">
         <v>-500</v>
       </c>
-      <c r="E63" s="2" t="n">
+      <c r="E63" s="3" t="n">
         <v>108.9</v>
       </c>
-      <c r="F63" s="2" t="n">
+      <c r="F63" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="G63" s="2" t="n">
+      <c r="G63" s="3" t="n">
         <v>1.99</v>
       </c>
-      <c r="H63" s="2" t="n">
+      <c r="H63" s="3" t="n">
         <v>0.58</v>
       </c>
-      <c r="I63" s="2" t="n">
+      <c r="I63" s="3" t="n">
         <v>2.57</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="5" t="n">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="6" t="n">
         <v>43443</v>
       </c>
-      <c r="D64" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E64" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F64" s="2" t="n">
+      <c r="D64" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" s="3" t="n">
         <v>108.9</v>
       </c>
-      <c r="G64" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H64" s="2" t="n">
+      <c r="G64" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" s="3" t="n">
         <v>2.77</v>
       </c>
-      <c r="I64" s="2" t="n">
+      <c r="I64" s="3" t="n">
         <v>2.77</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="5" t="n">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="6" t="n">
         <v>43444</v>
       </c>
-      <c r="D65" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" s="2" t="n">
+      <c r="D65" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="F65" s="2" t="n">
+      <c r="F65" s="3" t="n">
         <v>4.5</v>
       </c>
-      <c r="G65" s="2" t="n">
+      <c r="G65" s="3" t="n">
         <v>1.27</v>
       </c>
-      <c r="H65" s="2" t="n">
+      <c r="H65" s="3" t="n">
         <v>0.68</v>
       </c>
-      <c r="I65" s="2" t="n">
+      <c r="I65" s="3" t="n">
         <v>1.95</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="5" t="n">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="6" t="n">
         <v>43445</v>
       </c>
-      <c r="D66" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E66" s="2" t="n">
+      <c r="D66" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" s="3" t="n">
         <v>183.56</v>
       </c>
-      <c r="F66" s="2" t="n">
+      <c r="F66" s="3" t="n">
         <v>139.16</v>
       </c>
-      <c r="G66" s="2" t="n">
+      <c r="G66" s="3" t="n">
         <v>1.76</v>
       </c>
-      <c r="H66" s="2" t="n">
+      <c r="H66" s="3" t="n">
         <v>2.36</v>
       </c>
-      <c r="I66" s="2" t="n">
+      <c r="I66" s="3" t="n">
         <v>4.12</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="5" t="n">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="6" t="n">
         <v>43446</v>
       </c>
-      <c r="D67" s="2" t="n">
+      <c r="D67" s="3" t="n">
         <v>-500</v>
       </c>
-      <c r="E67" s="2" t="n">
+      <c r="E67" s="3" t="n">
         <v>16.84</v>
       </c>
-      <c r="F67" s="2" t="n">
+      <c r="F67" s="3" t="n">
         <v>30.04</v>
       </c>
-      <c r="G67" s="2" t="n">
+      <c r="G67" s="3" t="n">
         <v>3.08</v>
       </c>
-      <c r="H67" s="2" t="n">
+      <c r="H67" s="3" t="n">
         <v>0.38</v>
       </c>
-      <c r="I67" s="2" t="n">
+      <c r="I67" s="3" t="n">
         <v>3.46</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="5" t="n">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="6" t="n">
         <v>43447</v>
       </c>
-      <c r="D68" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E68" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F68" s="2" t="n">
+      <c r="D68" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" s="3" t="n">
         <v>8.51</v>
       </c>
-      <c r="G68" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H68" s="2" t="n">
+      <c r="G68" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" s="3" t="n">
         <v>2.48</v>
       </c>
-      <c r="I68" s="2" t="n">
+      <c r="I68" s="3" t="n">
         <v>2.48</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="5" t="n">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="6" t="n">
         <v>43448</v>
       </c>
-      <c r="D69" s="2" t="n">
+      <c r="D69" s="3" t="n">
         <v>-250</v>
       </c>
-      <c r="E69" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F69" s="2" t="n">
+      <c r="E69" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" s="3" t="n">
         <v>23.27</v>
       </c>
-      <c r="G69" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H69" s="2" t="n">
+      <c r="G69" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" s="3" t="n">
         <v>0.35</v>
       </c>
-      <c r="I69" s="2" t="n">
+      <c r="I69" s="3" t="n">
         <v>0.35</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="5" t="n">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="6" t="n">
         <v>43449</v>
       </c>
-      <c r="D70" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E70" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F70" s="2" t="n">
+      <c r="D70" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3" t="n">
         <v>58.91</v>
       </c>
-      <c r="G70" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H70" s="2" t="n">
+      <c r="G70" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3" t="n">
         <v>1.64</v>
       </c>
-      <c r="I70" s="2" t="n">
+      <c r="I70" s="3" t="n">
         <v>1.64</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="5" t="n">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="6" t="n">
         <v>43450</v>
       </c>
-      <c r="D71" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E71" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F71" s="2" t="n">
+      <c r="D71" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" s="3" t="n">
         <v>102.86</v>
       </c>
-      <c r="G71" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H71" s="2" t="n">
+      <c r="G71" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" s="3" t="n">
         <v>2.2</v>
       </c>
-      <c r="I71" s="2" t="n">
+      <c r="I71" s="3" t="n">
         <v>2.2</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="5" t="n">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="6" t="n">
         <v>43451</v>
       </c>
-      <c r="D72" s="2" t="n">
+      <c r="D72" s="3" t="n">
         <v>-250</v>
       </c>
-      <c r="E72" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F72" s="2" t="n">
+      <c r="E72" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" s="3" t="n">
         <v>33.12</v>
       </c>
-      <c r="G72" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H72" s="2" t="n">
+      <c r="G72" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" s="3" t="n">
         <v>0.75</v>
       </c>
-      <c r="I72" s="2" t="n">
+      <c r="I72" s="3" t="n">
         <v>0.75</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="5" t="n">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="6" t="n">
         <v>43452</v>
       </c>
-      <c r="D73" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E73" s="2" t="n">
+      <c r="D73" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" s="3" t="n">
         <v>5.28</v>
       </c>
-      <c r="F73" s="2" t="n">
+      <c r="F73" s="3" t="n">
         <v>27.62</v>
       </c>
-      <c r="G73" s="2" t="n">
+      <c r="G73" s="3" t="n">
         <v>0.13</v>
       </c>
-      <c r="H73" s="2" t="n">
+      <c r="H73" s="3" t="n">
         <v>0.64</v>
       </c>
-      <c r="I73" s="2" t="n">
+      <c r="I73" s="3" t="n">
         <v>0.77</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="5" t="n">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="6" t="n">
         <v>43453</v>
       </c>
-      <c r="D74" s="2" t="n">
+      <c r="D74" s="3" t="n">
         <v>-250</v>
       </c>
-      <c r="E74" s="2" t="n">
+      <c r="E74" s="3" t="n">
         <v>103.35</v>
       </c>
-      <c r="F74" s="2" t="n">
+      <c r="F74" s="3" t="n">
         <v>76.33</v>
       </c>
-      <c r="G74" s="2" t="n">
+      <c r="G74" s="3" t="n">
         <v>1.85</v>
       </c>
-      <c r="H74" s="2" t="n">
+      <c r="H74" s="3" t="n">
         <v>1.45</v>
       </c>
-      <c r="I74" s="2" t="n">
+      <c r="I74" s="3" t="n">
         <v>3.3</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="5" t="n">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="6" t="n">
         <v>43455</v>
       </c>
-      <c r="D75" s="2" t="n">
+      <c r="D75" s="3" t="n">
         <v>-189.63</v>
       </c>
-      <c r="E75" s="2" t="n">
+      <c r="E75" s="3" t="n">
         <v>78.63</v>
       </c>
-      <c r="F75" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G75" s="2" t="n">
+      <c r="F75" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" s="3" t="n">
         <v>1.72</v>
       </c>
-      <c r="H75" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" s="2" t="n">
+      <c r="H75" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" s="3" t="n">
         <v>1.72</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="5" t="n">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="6" t="n">
         <v>43457</v>
       </c>
-      <c r="D76" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E76" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F76" s="2" t="n">
+      <c r="D76" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" s="3" t="n">
         <v>107.73</v>
       </c>
-      <c r="G76" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H76" s="2" t="n">
+      <c r="G76" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" s="3" t="n">
         <v>1.59</v>
       </c>
-      <c r="I76" s="2" t="n">
+      <c r="I76" s="3" t="n">
         <v>1.59</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="5" t="n">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="6" t="n">
         <v>43458</v>
       </c>
-      <c r="D77" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E77" s="2" t="n">
+      <c r="D77" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" s="3" t="n">
         <v>83.11</v>
       </c>
-      <c r="F77" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G77" s="2" t="n">
+      <c r="F77" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" s="3" t="n">
         <v>1.29</v>
       </c>
-      <c r="H77" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" s="2" t="n">
+      <c r="H77" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" s="3" t="n">
         <v>1.29</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="5" t="n">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="6" t="n">
         <v>43459</v>
       </c>
-      <c r="D78" s="2" t="n">
+      <c r="D78" s="3" t="n">
         <v>-250</v>
       </c>
-      <c r="E78" s="2" t="n">
+      <c r="E78" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="F78" s="2" t="n">
+      <c r="F78" s="3" t="n">
         <v>155.41</v>
       </c>
-      <c r="G78" s="2" t="n">
+      <c r="G78" s="3" t="n">
         <v>1.92</v>
       </c>
-      <c r="H78" s="2" t="n">
+      <c r="H78" s="3" t="n">
         <v>0.86</v>
       </c>
-      <c r="I78" s="2" t="n">
+      <c r="I78" s="3" t="n">
         <v>2.78</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="5" t="n">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="6" t="n">
         <v>43460</v>
       </c>
-      <c r="D79" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E79" s="2" t="n">
+      <c r="D79" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" s="3" t="n">
         <v>37.15</v>
       </c>
-      <c r="F79" s="2" t="n">
+      <c r="F79" s="3" t="n">
         <v>10.03</v>
       </c>
-      <c r="G79" s="2" t="n">
+      <c r="G79" s="3" t="n">
         <v>2.49</v>
       </c>
-      <c r="H79" s="2" t="n">
+      <c r="H79" s="3" t="n">
         <v>0.81</v>
       </c>
-      <c r="I79" s="2" t="n">
+      <c r="I79" s="3" t="n">
         <v>3.3</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="5" t="n">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="6" t="n">
         <v>43461</v>
       </c>
-      <c r="D80" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E80" s="2" t="n">
+      <c r="D80" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" s="3" t="n">
         <v>116.48</v>
       </c>
-      <c r="F80" s="2" t="n">
+      <c r="F80" s="3" t="n">
         <v>165.42</v>
       </c>
-      <c r="G80" s="2" t="n">
+      <c r="G80" s="3" t="n">
         <v>2.02</v>
       </c>
-      <c r="H80" s="2" t="n">
+      <c r="H80" s="3" t="n">
         <v>2.16</v>
       </c>
-      <c r="I80" s="2" t="n">
+      <c r="I80" s="3" t="n">
         <v>4.18</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="5" t="n">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="6" t="n">
         <v>43462</v>
       </c>
-      <c r="D81" s="2" t="n">
+      <c r="D81" s="3" t="n">
         <v>-243.05</v>
       </c>
-      <c r="E81" s="2" t="n">
+      <c r="E81" s="3" t="n">
         <v>168.94</v>
       </c>
-      <c r="F81" s="2" t="n">
+      <c r="F81" s="3" t="n">
         <v>528.11</v>
       </c>
-      <c r="G81" s="2" t="n">
+      <c r="G81" s="3" t="n">
         <v>1.97</v>
       </c>
-      <c r="H81" s="2" t="n">
+      <c r="H81" s="3" t="n">
         <v>6.35</v>
       </c>
-      <c r="I81" s="2" t="n">
+      <c r="I81" s="3" t="n">
         <v>8.32</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="5" t="n">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="6" t="n">
         <v>43463</v>
       </c>
-      <c r="D82" s="2" t="n">
+      <c r="D82" s="3" t="n">
         <v>-500</v>
       </c>
-      <c r="E82" s="2" t="n">
+      <c r="E82" s="3" t="n">
         <v>5.02</v>
       </c>
-      <c r="F82" s="2" t="n">
+      <c r="F82" s="3" t="n">
         <v>7.04</v>
       </c>
-      <c r="G82" s="2" t="n">
+      <c r="G82" s="3" t="n">
         <v>0.53</v>
       </c>
-      <c r="H82" s="2" t="n">
+      <c r="H82" s="3" t="n">
         <v>0.4</v>
       </c>
-      <c r="I82" s="2" t="n">
+      <c r="I82" s="3" t="n">
         <v>0.93</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="5" t="n">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="6" t="n">
         <v>43464</v>
       </c>
-      <c r="D83" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E83" s="2" t="n">
+      <c r="D83" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3" t="n">
         <v>17.73</v>
       </c>
-      <c r="F83" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G83" s="2" t="n">
+      <c r="F83" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3" t="n">
         <v>1.68</v>
       </c>
-      <c r="H83" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" s="2" t="n">
+      <c r="H83" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3" t="n">
         <v>1.68</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="5" t="n">
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="6" t="n">
         <v>43465</v>
       </c>
-      <c r="D84" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E84" s="2" t="n">
+      <c r="D84" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" s="3" t="n">
         <v>133.03</v>
       </c>
-      <c r="F84" s="2" t="n">
+      <c r="F84" s="3" t="n">
         <v>4.15</v>
       </c>
-      <c r="G84" s="2" t="n">
+      <c r="G84" s="3" t="n">
         <v>2.44</v>
       </c>
-      <c r="H84" s="2" t="n">
+      <c r="H84" s="3" t="n">
         <v>0.71</v>
       </c>
-      <c r="I84" s="2" t="n">
+      <c r="I84" s="3" t="n">
         <v>3.15</v>
       </c>
     </row>
-    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:A84"/>
@@ -2400,198 +2404,198 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="21.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="34.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="18.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1020" min="10" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1021" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="16.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="21.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="16.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="34.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="18.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1020" min="10" style="1" width="8.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1021" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
+      <c r="D2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="3" t="n">
         <v>-4242.79</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="3" t="n">
         <v>2024.53</v>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="F3" s="3" t="n">
         <v>2131.78</v>
       </c>
-      <c r="G3" s="2" t="n">
+      <c r="G3" s="3" t="n">
         <v>46.31</v>
       </c>
-      <c r="H3" s="2" t="n">
+      <c r="H3" s="3" t="n">
         <v>48.96</v>
       </c>
-      <c r="I3" s="2" t="n">
+      <c r="I3" s="3" t="n">
         <v>95.27</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
+      <c r="D4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="3" t="n">
         <v>-4095.19</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="3" t="n">
         <v>2486.32</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="F5" s="3" t="n">
         <v>1434.85</v>
       </c>
-      <c r="G5" s="2" t="n">
+      <c r="G5" s="3" t="n">
         <v>48.89</v>
       </c>
-      <c r="H5" s="2" t="n">
+      <c r="H5" s="3" t="n">
         <v>35.93</v>
       </c>
-      <c r="I5" s="2" t="n">
+      <c r="I5" s="3" t="n">
         <v>84.82</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="3" t="n">
         <v>-3432.68</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" s="3" t="n">
         <v>1867.95</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="F6" s="3" t="n">
         <v>1939.76</v>
       </c>
-      <c r="G6" s="2" t="n">
+      <c r="G6" s="3" t="n">
         <v>35.62</v>
       </c>
-      <c r="H6" s="2" t="n">
+      <c r="H6" s="3" t="n">
         <v>32</v>
       </c>
-      <c r="I6" s="2" t="n">
+      <c r="I6" s="3" t="n">
         <v>67.62</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3" t="s">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2" t="n">
+      <c r="D7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2623,91 +2627,91 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="21.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="34.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="18.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1020" min="9" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1021" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="16.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="21.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="16.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="34.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="18.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1020" min="9" style="1" width="8.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1021" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="3" t="n">
         <v>-11770.66</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="3" t="n">
         <v>6378.8</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="3" t="n">
         <v>5506.39</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="3" t="n">
         <v>130.82</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="G2" s="3" t="n">
         <v>116.89</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="H2" s="3" t="n">
         <v>247.71</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="2" t="n">
+      <c r="B3" s="4"/>
+      <c r="C3" s="3" t="n">
         <v>-11770.66</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="3" t="n">
         <v>6378.8</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="3" t="n">
         <v>5506.39</v>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="F3" s="3" t="n">
         <v>130.82</v>
       </c>
-      <c r="G3" s="2" t="n">
+      <c r="G3" s="3" t="n">
         <v>116.89</v>
       </c>
-      <c r="H3" s="2" t="n">
+      <c r="H3" s="3" t="n">
         <v>247.71</v>
       </c>
     </row>
